--- a/dealer_prices.xlsx
+++ b/dealer_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\deale_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\reza\code\rezazolfii\dealer-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795BB90-5C3D-46CA-892E-E17A00A8CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCFB25F-6787-45A3-A6F5-10E2E20D44FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C889C744-D832-4F8F-9155-A14084C25007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>dealer_id</t>
   </si>
@@ -97,6 +97,126 @@
   </si>
   <si>
     <t>801(E1)</t>
+  </si>
+  <si>
+    <t>یخچال و فریزر دوقلو RTRA-RTFA900i(E2)</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 12 کیلوگرمی TLAB1201i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40803i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 9 کیلوگرمی BWF40902i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 9 کیلوگرمی BWF40901i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی نیمه اتوماتیک 9.6‌کیلوگرمی PTN9604 AJ</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40801i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40807i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40806i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40804i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 9 کیلوگرمی BWF40118i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40808i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 9 کیلوگرمی BWF40904i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 9 کیلوگرمی BWF40103i</t>
+  </si>
+  <si>
+    <t>ماشین لباسشویی 8 کیلوگرمی BWF40802i</t>
+  </si>
+  <si>
+    <t>ماشین ظرفشویی 15 نفره PDV3513</t>
+  </si>
+  <si>
+    <t>ماشین ظرفشویی 15 نفره PDB3512</t>
+  </si>
+  <si>
+    <t>ماشین ظرفشویی 15 نفره PDA3511</t>
+  </si>
+  <si>
+    <t>جاروبرقی 2500 وات PVC5015</t>
+  </si>
+  <si>
+    <t>جاروبرقی 2500 وات PVC 5225</t>
+  </si>
+  <si>
+    <t>جاروبرقی 2500 وات PVC5125</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>vc</t>
+  </si>
+  <si>
+    <t>900i(E2)</t>
+  </si>
+  <si>
+    <t>1201i</t>
+  </si>
+  <si>
+    <t>40803i</t>
+  </si>
+  <si>
+    <t>40902i</t>
+  </si>
+  <si>
+    <t>40901i</t>
+  </si>
+  <si>
+    <t>9604 AJ</t>
+  </si>
+  <si>
+    <t>40801i</t>
+  </si>
+  <si>
+    <t>40807i</t>
+  </si>
+  <si>
+    <t>40806i</t>
+  </si>
+  <si>
+    <t>40804i</t>
+  </si>
+  <si>
+    <t>40118i</t>
+  </si>
+  <si>
+    <t>40808i</t>
+  </si>
+  <si>
+    <t>40904i</t>
+  </si>
+  <si>
+    <t>40103i</t>
+  </si>
+  <si>
+    <t>40802i</t>
+  </si>
+  <si>
+    <t>pic</t>
   </si>
 </sst>
 </file>
@@ -180,7 +300,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE09D2-18CA-442A-9AD5-83398E4E457A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -512,6 +632,7 @@
     <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,7 +668,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">TODAY()</f>
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -573,7 +694,7 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -599,7 +720,7 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">TODAY()</f>
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -624,7 +745,7 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">TODAY()</f>
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -649,7 +770,7 @@
       </c>
       <c r="C6" s="2">
         <f ca="1">TODAY()</f>
-        <v>45620</v>
+        <v>45621</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -665,39 +786,508 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6">
+        <v>596650000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C27" ca="1" si="0">TODAY()</f>
+        <v>45621</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>170000000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7">
+        <v>285000000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7">
+        <v>288770000</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>288770000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>64900000</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>276270000</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>289100000</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>285000000</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>276270000</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>295720000</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>288220000</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>288770000</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>297500000</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>276270000</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>360000000</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3513</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>330000000</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3512</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>290000000</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3511</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>67500000</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5015</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>67300000</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D26" s="8">
+        <v>5225</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>83470000</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>45621</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dealer_prices.xlsx
+++ b/dealer_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\reza\code\rezazolfii\dealer-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCFB25F-6787-45A3-A6F5-10E2E20D44FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2197131A-A2E1-41C5-B48F-967984647557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C889C744-D832-4F8F-9155-A14084C25007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>dealer_id</t>
   </si>
@@ -217,13 +217,16 @@
   </si>
   <si>
     <t>pic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لباسشویی 8 کیلوگرمی 40803i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,16 +252,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <sz val="9"/>
       <color rgb="FF374151"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF323333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3D3D4E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,10 +313,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,24 +643,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE09D2-18CA-442A-9AD5-83398E4E457A}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="9.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="40.36328125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -660,633 +685,657 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>111111</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>600000000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="60">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="7">
         <v>22222</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>269730000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="D3" t="s">
+        <v>45622</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>111112</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>590000000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="29.5">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>111113</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>320000000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>111114</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>580000000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>45622</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="6">
         <v>596650000</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:C27" ca="1" si="0">TODAY()</f>
-        <v>45621</v>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:C28" ca="1" si="0">TODAY()</f>
+        <v>45622</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11">
         <v>170000000</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11">
         <v>285000000</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11">
         <v>288770000</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7">
         <v>288770000</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7">
         <v>64900000</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="7">
         <v>276270000</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="7">
         <v>289100000</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7">
         <v>285000000</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7">
         <v>276270000</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="7">
         <v>295720000</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7">
         <v>288220000</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7">
         <v>288770000</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7">
         <v>297500000</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7">
         <v>276270000</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7">
         <v>360000000</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D22" s="11">
         <v>3513</v>
       </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7">
         <v>330000000</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D23" s="11">
         <v>3512</v>
       </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7">
         <v>290000000</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D24" s="11">
         <v>3511</v>
       </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7">
         <v>67500000</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C25" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D25" s="11">
         <v>5015</v>
       </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="7">
         <v>67300000</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C26" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D26" s="11">
         <v>5225</v>
       </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="7">
         <v>83470000</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>45621</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C27" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D27" s="11">
         <v>5125</v>
       </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7">
+        <v>2222</v>
+      </c>
+      <c r="B28" s="11">
+        <v>282000000</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/dealer_prices.xlsx
+++ b/dealer_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\reza\code\rezazolfii\dealer-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2197131A-A2E1-41C5-B48F-967984647557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919202D-5B43-42D7-82FE-7649FE054ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C889C744-D832-4F8F-9155-A14084C25007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>dealer_id</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve"> لباسشویی 8 کیلوگرمی 40803i</t>
+  </si>
+  <si>
+    <t>تلویزیون ال ای دی هوشمند دوو 55 اینچ مدل DSL-55SU1700</t>
+  </si>
+  <si>
+    <t>55SU1700</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE09D2-18CA-442A-9AD5-83398E4E457A}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -818,7 +824,7 @@
         <v>596650000</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:C28" ca="1" si="0">TODAY()</f>
+        <f t="shared" ref="C7:C29" ca="1" si="0">TODAY()</f>
         <v>45622</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1336,6 +1342,30 @@
       </c>
       <c r="G28" s="7" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
+        <v>3333</v>
+      </c>
+      <c r="B29" s="7">
+        <v>23400000</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45622</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/dealer_prices.xlsx
+++ b/dealer_prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\reza\code\rezazolfii\dealer-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919202D-5B43-42D7-82FE-7649FE054ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF7F7E-9C6B-4A10-9C51-DACE9CE1AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C889C744-D832-4F8F-9155-A14084C25007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
   <si>
     <t>dealer_id</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>55SU1700</t>
+  </si>
+  <si>
+    <t>46SU5000</t>
+  </si>
+  <si>
+    <t>تلویزیون ال ای دی هوشمند دوو 46 اینچ مدل DSL-46SU5000</t>
   </si>
 </sst>
 </file>
@@ -649,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE09D2-18CA-442A-9AD5-83398E4E457A}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -699,7 +705,7 @@
       </c>
       <c r="C2" s="8">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
@@ -725,7 +731,7 @@
       </c>
       <c r="C3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -751,7 +757,7 @@
       </c>
       <c r="C4" s="8">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
@@ -776,7 +782,7 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
@@ -801,7 +807,7 @@
       </c>
       <c r="C6" s="8">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>20</v>
@@ -824,8 +830,8 @@
         <v>596650000</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:C29" ca="1" si="0">TODAY()</f>
-        <v>45622</v>
+        <f t="shared" ref="C7:C30" ca="1" si="0">TODAY()</f>
+        <v>45669</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>45</v>
@@ -849,7 +855,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>46</v>
@@ -873,7 +879,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>47</v>
@@ -897,7 +903,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>48</v>
@@ -921,7 +927,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>49</v>
@@ -945,7 +951,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>50</v>
@@ -969,7 +975,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>51</v>
@@ -993,7 +999,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>52</v>
@@ -1017,7 +1023,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>53</v>
@@ -1041,7 +1047,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>54</v>
@@ -1065,7 +1071,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>55</v>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>56</v>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>57</v>
@@ -1137,7 +1143,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>58</v>
@@ -1161,7 +1167,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>59</v>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D22" s="11">
         <v>3513</v>
@@ -1209,7 +1215,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D23" s="11">
         <v>3512</v>
@@ -1233,7 +1239,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D24" s="11">
         <v>3511</v>
@@ -1257,7 +1263,7 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D25" s="11">
         <v>5015</v>
@@ -1281,7 +1287,7 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D26" s="11">
         <v>5225</v>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D27" s="11">
         <v>5125</v>
@@ -1329,7 +1335,7 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>47</v>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45622</v>
+        <v>45669</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>63</v>
@@ -1366,6 +1372,30 @@
       </c>
       <c r="G29" s="7" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7">
+        <v>3333</v>
+      </c>
+      <c r="B30" s="7">
+        <v>23400000</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45669</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/dealer_prices.xlsx
+++ b/dealer_prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\reza\code\rezazolfii\dealer-price\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF7F7E-9C6B-4A10-9C51-DACE9CE1AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE5C52-C121-46A9-8D1B-84FEE253467B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C889C744-D832-4F8F-9155-A14084C25007}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>dealer_id</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>تلویزیون ال ای دی هوشمند دوو 46 اینچ مدل DSL-46SU5000</t>
+  </si>
+  <si>
+    <t>801f75</t>
+  </si>
+  <si>
+    <t>تلوزیون 75 اینچ سامسونگ مدل 7000f32</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAE09D2-18CA-442A-9AD5-83398E4E457A}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1398,6 +1404,29 @@
         <v>65</v>
       </c>
     </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7">
+        <v>111113</v>
+      </c>
+      <c r="B31" s="7">
+        <v>320000000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>45669</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
